--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S4/S4_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S4/S4_storagemod.xlsx
@@ -14,234 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.96247748174837</t>
-  </si>
-  <si>
-    <t>92.57122878543663</t>
-  </si>
-  <si>
-    <t>94.17998008912488</t>
-  </si>
-  <si>
-    <t>95.78873139281313</t>
-  </si>
-  <si>
-    <t>97.39748269650138</t>
-  </si>
-  <si>
-    <t>99.00623400018964</t>
-  </si>
-  <si>
-    <t>100.61498530387789</t>
-  </si>
-  <si>
-    <t>102.22373660756614</t>
-  </si>
-  <si>
-    <t>103.83248791125439</t>
-  </si>
-  <si>
-    <t>105.44123921494264</t>
-  </si>
-  <si>
-    <t>106.91999041328235</t>
-  </si>
-  <si>
-    <t>108.57749175647632</t>
-  </si>
-  <si>
-    <t>110.12124300749029</t>
-  </si>
-  <si>
-    <t>111.72999431117854</t>
-  </si>
-  <si>
-    <t>113.3387456148668</t>
-  </si>
-  <si>
-    <t>114.94749691855505</t>
-  </si>
-  <si>
-    <t>116.55624822224331</t>
-  </si>
-  <si>
-    <t>118.16499952593156</t>
-  </si>
-  <si>
-    <t>119.77375082961981</t>
-  </si>
-  <si>
-    <t>121.38250213330807</t>
-  </si>
-  <si>
-    <t>122.99125343699632</t>
-  </si>
-  <si>
-    <t>124.55125470117886</t>
-  </si>
-  <si>
-    <t>126.17950602066941</t>
-  </si>
-  <si>
-    <t>127.81750734806107</t>
-  </si>
-  <si>
-    <t>129.42625865174932</t>
-  </si>
-  <si>
-    <t>131.03500995543757</t>
-  </si>
-  <si>
-    <t>132.64376125912582</t>
-  </si>
-  <si>
-    <t>134.28176258651752</t>
-  </si>
-  <si>
-    <t>135.86126386650233</t>
-  </si>
-  <si>
-    <t>137.47001517019058</t>
-  </si>
-  <si>
-    <t>139.07876647387883</t>
-  </si>
-  <si>
-    <t>140.6875177775671</t>
-  </si>
-  <si>
-    <t>142.29626908125533</t>
-  </si>
-  <si>
-    <t>143.9050203849436</t>
-  </si>
-  <si>
-    <t>145.51377168863183</t>
-  </si>
-  <si>
-    <t>147.15177301602353</t>
-  </si>
-  <si>
-    <t>148.73127429600834</t>
-  </si>
-  <si>
-    <t>13295051.389374124</t>
-  </si>
-  <si>
-    <t>13282506.482745063</t>
-  </si>
-  <si>
-    <t>13240775.554668017</t>
-  </si>
-  <si>
-    <t>13137020.94030936</t>
-  </si>
-  <si>
-    <t>12828086.620454757</t>
-  </si>
-  <si>
-    <t>12126518.19030651</t>
-  </si>
-  <si>
-    <t>11402480.066111654</t>
-  </si>
-  <si>
-    <t>10412335.23362649</t>
-  </si>
-  <si>
-    <t>9245890.633799385</t>
-  </si>
-  <si>
-    <t>8213531.934367279</t>
-  </si>
-  <si>
-    <t>7195736.894187314</t>
-  </si>
-  <si>
-    <t>5364210.081784044</t>
-  </si>
-  <si>
-    <t>4233379.035697814</t>
-  </si>
-  <si>
-    <t>3569015.359834719</t>
-  </si>
-  <si>
-    <t>2887627.828280476</t>
-  </si>
-  <si>
-    <t>2480078.8888440975</t>
-  </si>
-  <si>
-    <t>2173809.6231541242</t>
-  </si>
-  <si>
-    <t>1894600.360590102</t>
-  </si>
-  <si>
-    <t>1651578.1839856294</t>
-  </si>
-  <si>
-    <t>1526029.7280280464</t>
-  </si>
-  <si>
-    <t>1371731.1141106563</t>
-  </si>
-  <si>
-    <t>1288343.4080277088</t>
-  </si>
-  <si>
-    <t>1200207.3482718458</t>
-  </si>
-  <si>
-    <t>1104009.256726295</t>
-  </si>
-  <si>
-    <t>1042804.4121776164</t>
-  </si>
-  <si>
-    <t>962018.469850537</t>
-  </si>
-  <si>
-    <t>924912.7189469322</t>
-  </si>
-  <si>
-    <t>849776.4775928378</t>
-  </si>
-  <si>
-    <t>795249.3872721773</t>
-  </si>
-  <si>
-    <t>746155.6578381674</t>
-  </si>
-  <si>
-    <t>691607.8365574519</t>
-  </si>
-  <si>
-    <t>643700.807413678</t>
-  </si>
-  <si>
-    <t>599347.9562647924</t>
-  </si>
-  <si>
-    <t>545356.6941933096</t>
-  </si>
-  <si>
-    <t>514312.9827359352</t>
-  </si>
-  <si>
-    <t>478988.3583076197</t>
-  </si>
-  <si>
-    <t>445178.44761249877</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -614,299 +392,299 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="A2">
+        <v>90.96247748174837</v>
+      </c>
+      <c r="B2">
+        <v>13295051.38937412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+      <c r="A3">
+        <v>92.57122878543663</v>
+      </c>
+      <c r="B3">
+        <v>13282506.48274506</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="A4">
+        <v>94.17998008912488</v>
+      </c>
+      <c r="B4">
+        <v>13240775.55466802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
+      <c r="A5">
+        <v>95.78873139281313</v>
+      </c>
+      <c r="B5">
+        <v>13137020.94030936</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
+      <c r="A6">
+        <v>97.39748269650138</v>
+      </c>
+      <c r="B6">
+        <v>12828086.62045476</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
+      <c r="A7">
+        <v>99.00623400018964</v>
+      </c>
+      <c r="B7">
+        <v>12126518.19030651</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
+      <c r="A8">
+        <v>100.6149853038779</v>
+      </c>
+      <c r="B8">
+        <v>11402480.06611165</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+      <c r="A9">
+        <v>102.2237366075661</v>
+      </c>
+      <c r="B9">
+        <v>10412335.23362649</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
+      <c r="A10">
+        <v>103.8324879112544</v>
+      </c>
+      <c r="B10">
+        <v>9245890.633799385</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
+      <c r="A11">
+        <v>105.4412392149426</v>
+      </c>
+      <c r="B11">
+        <v>8213531.934367279</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+      <c r="A12">
+        <v>106.9199904132823</v>
+      </c>
+      <c r="B12">
+        <v>7195736.894187314</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
+      <c r="A13">
+        <v>108.5774917564763</v>
+      </c>
+      <c r="B13">
+        <v>5364210.081784044</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
+      <c r="A14">
+        <v>110.1212430074903</v>
+      </c>
+      <c r="B14">
+        <v>4233379.035697814</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
+      <c r="A15">
+        <v>111.7299943111785</v>
+      </c>
+      <c r="B15">
+        <v>3569015.359834719</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
+      <c r="A16">
+        <v>113.3387456148668</v>
+      </c>
+      <c r="B16">
+        <v>2887627.828280476</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
+      <c r="A17">
+        <v>114.947496918555</v>
+      </c>
+      <c r="B17">
+        <v>2480078.888844097</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
+      <c r="A18">
+        <v>116.5562482222433</v>
+      </c>
+      <c r="B18">
+        <v>2173809.623154124</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
+      <c r="A19">
+        <v>118.1649995259316</v>
+      </c>
+      <c r="B19">
+        <v>1894600.360590102</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
+      <c r="A20">
+        <v>119.7737508296198</v>
+      </c>
+      <c r="B20">
+        <v>1651578.183985629</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
+      <c r="A21">
+        <v>121.3825021333081</v>
+      </c>
+      <c r="B21">
+        <v>1526029.728028046</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
+      <c r="A22">
+        <v>122.9912534369963</v>
+      </c>
+      <c r="B22">
+        <v>1371731.114110656</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
+      <c r="A23">
+        <v>124.5512547011789</v>
+      </c>
+      <c r="B23">
+        <v>1288343.408027709</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
+      <c r="A24">
+        <v>126.1795060206694</v>
+      </c>
+      <c r="B24">
+        <v>1200207.348271846</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
+      <c r="A25">
+        <v>127.8175073480611</v>
+      </c>
+      <c r="B25">
+        <v>1104009.256726295</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
+      <c r="A26">
+        <v>129.4262586517493</v>
+      </c>
+      <c r="B26">
+        <v>1042804.412177616</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
+      <c r="A27">
+        <v>131.0350099554376</v>
+      </c>
+      <c r="B27">
+        <v>962018.469850537</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
+      <c r="A28">
+        <v>132.6437612591258</v>
+      </c>
+      <c r="B28">
+        <v>924912.7189469322</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
+      <c r="A29">
+        <v>134.2817625865175</v>
+      </c>
+      <c r="B29">
+        <v>849776.4775928378</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
+      <c r="A30">
+        <v>135.8612638665023</v>
+      </c>
+      <c r="B30">
+        <v>795249.3872721773</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
+      <c r="A31">
+        <v>137.4700151701906</v>
+      </c>
+      <c r="B31">
+        <v>746155.6578381674</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
+      <c r="A32">
+        <v>139.0787664738788</v>
+      </c>
+      <c r="B32">
+        <v>691607.8365574519</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
+      <c r="A33">
+        <v>140.6875177775671</v>
+      </c>
+      <c r="B33">
+        <v>643700.807413678</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
+      <c r="A34">
+        <v>142.2962690812553</v>
+      </c>
+      <c r="B34">
+        <v>599347.9562647924</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
+      <c r="A35">
+        <v>143.9050203849436</v>
+      </c>
+      <c r="B35">
+        <v>545356.6941933096</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
+      <c r="A36">
+        <v>145.5137716886318</v>
+      </c>
+      <c r="B36">
+        <v>514312.9827359352</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
+      <c r="A37">
+        <v>147.1517730160235</v>
+      </c>
+      <c r="B37">
+        <v>478988.3583076197</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
+      <c r="A38">
+        <v>148.7312742960083</v>
+      </c>
+      <c r="B38">
+        <v>445178.4476124988</v>
       </c>
     </row>
   </sheetData>
